--- a/Data/g19.1b.xlsx
+++ b/Data/g19.1b.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,7 +365,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Valor</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Colocação</t>
         </is>
       </c>
     </row>
@@ -375,8 +385,18 @@
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="B2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2016</t>
+        </is>
+      </c>
+      <c r="C2">
         <v>5.630000000000001</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1º</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -385,8 +405,18 @@
           <t>Amazonas</t>
         </is>
       </c>
-      <c r="B3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2016</t>
+        </is>
+      </c>
+      <c r="C3">
         <v>4.489999999999998</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2º</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -395,8 +425,18 @@
           <t>Piauí</t>
         </is>
       </c>
-      <c r="B4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2016</t>
+        </is>
+      </c>
+      <c r="C4">
         <v>4.010000000000002</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3º</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -405,8 +445,18 @@
           <t>Roraima</t>
         </is>
       </c>
-      <c r="B5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2016</t>
+        </is>
+      </c>
+      <c r="C5">
         <v>0.6000000000000014</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4º</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -415,8 +465,18 @@
           <t>Paraíba</t>
         </is>
       </c>
-      <c r="B6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2016</t>
+        </is>
+      </c>
+      <c r="C6">
         <v>-3.869999999999997</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5º</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -425,8 +485,18 @@
           <t>Tocantins</t>
         </is>
       </c>
-      <c r="B7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2016</t>
+        </is>
+      </c>
+      <c r="C7">
         <v>-4.069999999999997</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6º</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -435,8 +505,18 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2016</t>
+        </is>
+      </c>
+      <c r="C8">
         <v>-33.99</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27º</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -445,7 +525,12 @@
           <t>Nordeste</t>
         </is>
       </c>
-      <c r="B9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2016</t>
+        </is>
+      </c>
+      <c r="C9">
         <v>-10.39</v>
       </c>
     </row>
@@ -455,7 +540,12 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Diferença 2022-2016</t>
+        </is>
+      </c>
+      <c r="C10">
         <v>-6.729999999999997</v>
       </c>
     </row>

--- a/Data/g19.1b.xlsx
+++ b/Data/g19.1b.xlsx
@@ -1,21 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1619DF2E-8807-44BC-8965-0221E8997CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Região</t>
+  </si>
+  <si>
+    <t>Variável</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Colocação</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>Taxa de homicídio doloso 2023-2018</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>Taxa de homicídio doloso 2023-2019</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Taxa de homicídio doloso 2023-2020</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>Taxa de homicídio doloso 2023-2021</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>Taxa de homicídio doloso 2023-2022</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Taxa de homicídio doloso 2023-2023</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Taxa de homicídio doloso 2023-2024</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>Taxa de homicídio doloso 2023-2025</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +134,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +186,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +220,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +255,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,203 +431,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Região</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Variável</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Valor</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Colocação</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2016</t>
-        </is>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>5.630000000000001</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1º</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Amazonas</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2016</t>
-        </is>
+        <v>-38.049517530789927</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>4.489999999999998</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2º</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Piauí</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2016</t>
-        </is>
+        <v>-26.211924166962504</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>4.010000000000002</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3º</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Roraima</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2016</t>
-        </is>
+        <v>-23.257671692681377</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4º</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Paraíba</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2016</t>
-        </is>
+        <v>-18.41613979298668</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>-3.869999999999997</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5º</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Tocantins</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2016</t>
-        </is>
+        <v>-17.865129445479209</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>-4.069999999999997</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6º</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2016</t>
-        </is>
+        <v>-16.855620352953895</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>-33.99</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>27º</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2016</t>
-        </is>
+        <v>-9.4653912135222686</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>-10.39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Diferença 2022-2016</t>
-        </is>
-      </c>
-      <c r="C10">
-        <v>-6.729999999999997</v>
+        <v>-8.4533008647251826</v>
       </c>
     </row>
   </sheetData>
